--- a/DB/Tablas de aprendizaje de movimientos/Poochyena y Mightyena.xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Poochyena y Mightyena.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\descargas\RETOCAR Tablas de movimientos - copia\Tablas de aprendizaje de movimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Documents\Monsters Feudal Seishin\Guión y bases de datos\Bases para el sistema de combate\Tablas de aprendizaje de movimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Poochyena" sheetId="1" r:id="rId1"/>
     <sheet name="Mightyena" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mightyena!$A$2:$A$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Poochyena!$A$2:$A$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mightyena!$A$2:$A$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Poochyena!$A$2:$A$22</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">Mightyena!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Poochyena!#REF!</definedName>
   </definedNames>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
   <si>
     <t>Movimiento</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Maldición</t>
   </si>
   <si>
-    <t>Esfera aural</t>
-  </si>
-  <si>
     <t>Poder oculto</t>
   </si>
   <si>
@@ -109,6 +106,18 @@
   </si>
   <si>
     <t>Bola sombra</t>
+  </si>
+  <si>
+    <t>Rugido de guerra</t>
+  </si>
+  <si>
+    <t>Psicocolmillo</t>
+  </si>
+  <si>
+    <t>Colmillo veneno</t>
+  </si>
+  <si>
+    <t>Colmillo rayo</t>
   </si>
 </sst>
 </file>
@@ -453,19 +462,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -481,7 +490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -489,7 +498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -497,7 +506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -505,7 +514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -513,7 +522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -521,7 +530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -529,7 +538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -537,7 +546,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -545,7 +554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -553,7 +562,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -561,7 +578,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -569,15 +586,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -585,7 +602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -593,44 +610,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -641,19 +658,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,119 +678,127 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -781,7 +806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -789,7 +814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -797,44 +822,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/DB/Tablas de aprendizaje de movimientos/Poochyena y Mightyena.xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Poochyena y Mightyena.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Documents\Monsters Feudal Seishin\Guión y bases de datos\Bases para el sistema de combate\Tablas de aprendizaje de movimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oxikr\source\repos\monster-Feudal\DB\Tablas de aprendizaje de movimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
